--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3051546.094507063</v>
+        <v>3155725.728958135</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>247.0920043350322</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>135.0614749646566</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>93.68672461155379</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -865,22 +867,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>76.07834618145914</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.0860508096752</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>77.97736515780272</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>29.57958932363412</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1108,16 +1110,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>208.3974518461296</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>157.714110798666</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.3451038329821</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>30.70739922262702</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>61.42978662487853</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>86.90598908794038</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>28.75188085812011</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>45.31583743121449</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>26.05480806223588</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>251.9857969875594</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>26.05480806223585</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>35.55160172423425</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>141.383131826302</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>78.91051008678045</v>
+        <v>100.1928033809251</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>121.676127120544</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>74.95497330698059</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>26.27614159852221</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>68.17501931583824</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>55.5207962406042</v>
+        <v>96.78074638267672</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>117.4665281367395</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4141,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>10.58364443467411</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.8417748468611</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1712.341567565139</v>
+        <v>1938.906022842681</v>
       </c>
       <c r="C2" t="n">
-        <v>1343.379050624727</v>
+        <v>1569.943505902269</v>
       </c>
       <c r="D2" t="n">
-        <v>1343.379050624727</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>957.5907980264828</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866152</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>2489.080739605072</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y2" t="n">
-        <v>2098.941407629261</v>
+        <v>2325.505862906803</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4413,7 +4415,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.7237329438971</v>
+        <v>1953.788709207947</v>
       </c>
       <c r="C4" t="n">
-        <v>775.7875500159902</v>
+        <v>1859.155654044762</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>1709.039014632426</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>1709.039014632426</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.164776917667</v>
+        <v>2946.672497492342</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.164776917667</v>
+        <v>2691.988009286455</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.164776917667</v>
+        <v>2402.570839249494</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.164776917667</v>
+        <v>2174.581288351477</v>
       </c>
       <c r="Y4" t="n">
-        <v>1126.372197774137</v>
+        <v>1953.788709207947</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1934.208022973022</v>
+        <v>2038.144201386632</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1669.181684446221</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1310.91598583947</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605071</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.94140762926</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>774.7644039315074</v>
+        <v>634.7363945304596</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4720,7 +4722,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4756,19 +4758,19 @@
         <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1615.697475415547</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W7" t="n">
-        <v>1405.194998803295</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X7" t="n">
-        <v>1177.205447905277</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="Y7" t="n">
-        <v>956.4128687617472</v>
+        <v>816.3848593606994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>1749.723851760224</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1749.723851760224</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1391.458153153474</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2756.46356326495</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2425.400675921379</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W8" t="n">
-        <v>2425.400675921379</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.9349176603</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.795585684488</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
         <v>163.8377936138381</v>
@@ -4957,19 +4959,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1614.760631700497</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1325.65776482614</v>
       </c>
       <c r="V10" t="n">
-        <v>1865.244258568413</v>
+        <v>1070.973276620253</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.827088531452</v>
+        <v>781.5561065832925</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.837537633435</v>
+        <v>553.5665556852751</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>332.773976541745</v>
       </c>
     </row>
     <row r="11">
@@ -5021,70 +5023,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>2878.328163333972</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>3474.685803651587</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>4102.283767206194</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565526</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5431,55 +5433,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,19 +5603,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474262</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5707,16 +5709,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.900449534062</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5835,22 +5837,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474262</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>261.8464821474262</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>120.1346509896242</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>228.9331431646415</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>562.8579153358621</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.183521551621</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.562009178173</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6266,10 +6268,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6382,52 +6384,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>943.510265746755</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>809.0422355233313</v>
+        <v>945.4026036630049</v>
       </c>
       <c r="C34" t="n">
-        <v>640.1060525954244</v>
+        <v>776.466420735098</v>
       </c>
       <c r="D34" t="n">
-        <v>489.9894131830887</v>
+        <v>626.3497813227623</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>478.4366877403692</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V34" t="n">
-        <v>1728.890000432079</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W34" t="n">
-        <v>1439.472830395119</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.483279497101</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.6907003535711</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7011,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7029,13 +7031,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2532.719182723414</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,19 +7256,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2349.204753900789</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>2129.60328892373</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1840.528062267928</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1585.843574062041</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1296.426404025081</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7439,19 +7441,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,16 +7493,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>4262.384993990607</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.967823953646</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7630,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>2383.002557118213</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L45" t="n">
-        <v>2453.684166529967</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M45" t="n">
-        <v>3051.062654156519</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>3678.660617711126</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>4230.570347950413</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>961.4446166151475</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>792.5084336872407</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>642.3917942749049</v>
       </c>
       <c r="E46" t="n">
         <v>631.7012443408906</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602304</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565343</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>1466.014387565343</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>1143.093081445387</v>
       </c>
     </row>
   </sheetData>
@@ -23419,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>145.6085800303782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>131.6786642641544</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>180.3938179578226</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>119.3662399606954</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.1518463362686475</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>55.21102825632968</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>190.1580536648029</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>145.139866510289</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>69.70496293143191</v>
+        <v>48.42266963728721</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>18.61858572567991</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>70.46607471595065</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>225.8615017253058</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>77.246028707093</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610404</v>
+        <v>84.24553961896787</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>135.8503182118951</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.7428785052337</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>718452.1540290017</v>
+        <v>718452.1540290018</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>718452.1540290017</v>
+        <v>718452.1540290018</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>718452.1540290018</v>
+        <v>718452.1540290017</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287555</v>
@@ -26326,34 +26328,34 @@
         <v>706253.2747287557</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92183.89891818172</v>
+      </c>
+      <c r="C4" t="n">
         <v>92183.89891818169</v>
       </c>
-      <c r="C4" t="n">
-        <v>92183.89891818173</v>
-      </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26439,7 +26441,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26454,7 +26456,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-810451.0365759196</v>
+        <v>-810451.0365759197</v>
       </c>
       <c r="C6" t="n">
+        <v>518293.7091516729</v>
+      </c>
+      <c r="D6" t="n">
         <v>518293.7091516728</v>
       </c>
-      <c r="D6" t="n">
-        <v>518293.7091516732</v>
-      </c>
       <c r="E6" t="n">
-        <v>266721.4189506626</v>
+        <v>266721.4189506628</v>
       </c>
       <c r="F6" t="n">
-        <v>592133.8807580181</v>
+        <v>592133.880758018</v>
       </c>
       <c r="G6" t="n">
-        <v>592133.880758018</v>
+        <v>592133.8807580185</v>
       </c>
       <c r="H6" t="n">
-        <v>592133.8807580177</v>
+        <v>592133.8807580178</v>
       </c>
       <c r="I6" t="n">
         <v>592133.880758018</v>
       </c>
       <c r="J6" t="n">
-        <v>374602.6783607404</v>
+        <v>374602.6783607403</v>
       </c>
       <c r="K6" t="n">
         <v>592133.880758018</v>
       </c>
       <c r="L6" t="n">
-        <v>592133.8807580179</v>
+        <v>592133.8807580178</v>
       </c>
       <c r="M6" t="n">
-        <v>507078.8528225063</v>
+        <v>507078.8528225064</v>
       </c>
       <c r="N6" t="n">
-        <v>592133.880758018</v>
+        <v>592133.8807580181</v>
       </c>
       <c r="O6" t="n">
         <v>592133.8807580178</v>
       </c>
       <c r="P6" t="n">
-        <v>592133.8807580178</v>
+        <v>592133.880758018</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,22 +26968,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>107.5910372856508</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>271.8145707770549</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>73.56009648707405</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>210.1334920241537</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>219.6477908538054</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>303.953004914459</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>137.6672317749937</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27828,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>78.12554649046137</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>224.2162592735958</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6500681259198586</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>188.8415500535422</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>190.7078566989495</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30457,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="42">
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,10 +31846,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>744.5154887882964</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159419</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>533.6019216797995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>248.5245325067415</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32321,7 +32323,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>677.7372574190224</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,31 +32788,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>263.3189197138078</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>453.7122424932254</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>333.9544784328825</v>
+        <v>572.8682992214867</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>277.4567226539307</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>552.0015769888923</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>166.2270851128133</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33974,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>401.521336481369</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34211,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34442,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>419.3361492447676</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,10 +35494,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>602.3814548662781</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>395.0475418999253</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>114.5501250924112</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35969,7 +35971,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>535.141012974578</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>136.4812930471411</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>322.3705304098921</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>191.358233988438</v>
+        <v>430.2720547770423</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>138.9023428740565</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>418.027169574562</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37622,22 +37624,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>263.67989750701</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37859,19 +37861,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>281.4947102704086</v>
       </c>
       <c r="L45" t="n">
-        <v>71.3955650623777</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3155725.728958135</v>
+        <v>3151713.118944142</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>247.0920043350322</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -715,7 +715,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>226.1269574499861</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>93.68672461155379</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>114.2656173771023</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>77.97736515780272</v>
+        <v>50.04052206184536</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>29.57958932363412</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039669</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>157.714110798666</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>218.8748435506846</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>30.70739922262702</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1581,10 +1581,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.90598908794038</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>45.31583743121449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>212.5602966632236</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>251.9857969875594</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>35.55160172423425</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>141.383131826302</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>100.1928033809251</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>121.676127120544</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>74.95497330698059</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="F37" t="n">
-        <v>68.17501931583824</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>96.78074638267672</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>59.66990246485226</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>117.4665281367395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>10.58364443467411</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1938.906022842681</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C2" t="n">
-        <v>1569.943505902269</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
         <v>1320.35562273557</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2780.926337389189</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>2449.863450045618</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906803</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y2" t="n">
-        <v>2325.505862906803</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064538</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080122</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986296</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1953.788709207947</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="C4" t="n">
-        <v>1859.155654044762</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D4" t="n">
-        <v>1709.039014632426</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E4" t="n">
-        <v>1709.039014632426</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F4" t="n">
-        <v>1562.149067134516</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134516</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
         <v>1562.149067134516</v>
@@ -4521,19 +4521,19 @@
         <v>3235.775364366698</v>
       </c>
       <c r="U4" t="n">
-        <v>2946.672497492342</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="V4" t="n">
-        <v>2691.988009286455</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="W4" t="n">
-        <v>2402.570839249494</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="X4" t="n">
-        <v>2174.581288351477</v>
+        <v>2892.365997936255</v>
       </c>
       <c r="Y4" t="n">
-        <v>1953.788709207947</v>
+        <v>2671.573418792725</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2038.144201386632</v>
+        <v>1712.34156756514</v>
       </c>
       <c r="C5" t="n">
-        <v>1669.181684446221</v>
+        <v>1343.379050624728</v>
       </c>
       <c r="D5" t="n">
-        <v>1310.91598583947</v>
+        <v>985.1133520179776</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4582,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2862.546497866153</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450754</v>
+        <v>2489.080739605073</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450754</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.7363945304596</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>604.8580214762837</v>
+        <v>838.5106002518386</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>688.3939608395028</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>540.4808672571097</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>393.5909197591993</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8880831339183</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>79.67089635177607</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.177438504229</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X7" t="n">
-        <v>1037.177438504229</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>816.3848593606994</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.723851760224</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.723851760224</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1391.458153153474</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997116</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736036</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.723851760224</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.773976541745</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1614.760631700497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1325.65776482614</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1070.973276620253</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>781.5561065832925</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>553.5665556852751</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y10" t="n">
-        <v>332.773976541745</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>2878.328163333972</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>3474.685803651587</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>4102.283767206194</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.4638174991043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908939</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1048.112282329344</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5260,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811332</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5512,16 +5512,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,13 +5530,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.900449534062</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.483279497101</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.483279497101</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.6907003535711</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5746,19 +5746,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556949</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>593.6115863900021</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>593.6115863900021</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>445.698492807609</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>298.8085453096986</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>298.8085453096986</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.4026036630049</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>776.466420735098</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>626.3497813227623</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>478.4366877403692</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,19 +6949,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492579</v>
@@ -6970,16 +6970,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2349.204753900789</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2129.60328892373</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1840.528062267928</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1585.843574062041</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1296.426404025081</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1068.436853127063</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>847.6442739835331</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,25 +7393,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7441,7 +7441,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2167.088989850826</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V43" t="n">
-        <v>1569.732795130727</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.315625093766</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7727,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>372.4964262156764</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>961.4446166151475</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>792.5084336872407</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>642.3917942749049</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.885660588917</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1143.093081445387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.6786642641544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.3938179578226</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>4.845153664064696</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1518463362686475</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>190.1580536648029</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>48.42266963728721</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>18.61858572567991</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>70.46607471595065</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>126.5688841976867</v>
       </c>
       <c r="F37" t="n">
-        <v>77.246028707093</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>84.24553961896787</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>121.3563835367923</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>135.8503182118951</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>718452.1540290018</v>
+        <v>718452.1540290017</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>718452.1540290018</v>
+        <v>718452.1540290017</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="L2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287557</v>
-      </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.539624622135307e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26377,22 +26377,22 @@
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818164</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818169</v>
@@ -26456,7 +26456,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-810451.0365759197</v>
+        <v>-810451.0365759196</v>
       </c>
       <c r="C6" t="n">
-        <v>518293.7091516729</v>
+        <v>518293.7091516724</v>
       </c>
       <c r="D6" t="n">
-        <v>518293.7091516728</v>
+        <v>518293.7091516732</v>
       </c>
       <c r="E6" t="n">
-        <v>266721.4189506628</v>
+        <v>266374.0396963058</v>
       </c>
       <c r="F6" t="n">
-        <v>592133.880758018</v>
+        <v>591786.501503661</v>
       </c>
       <c r="G6" t="n">
-        <v>592133.8807580185</v>
+        <v>591786.5015036608</v>
       </c>
       <c r="H6" t="n">
-        <v>592133.8807580178</v>
+        <v>591786.5015036609</v>
       </c>
       <c r="I6" t="n">
-        <v>592133.880758018</v>
+        <v>591786.5015036609</v>
       </c>
       <c r="J6" t="n">
-        <v>374602.6783607403</v>
+        <v>374255.2991063836</v>
       </c>
       <c r="K6" t="n">
-        <v>592133.880758018</v>
+        <v>591786.5015036612</v>
       </c>
       <c r="L6" t="n">
-        <v>592133.8807580178</v>
+        <v>591786.5015036612</v>
       </c>
       <c r="M6" t="n">
-        <v>507078.8528225064</v>
+        <v>506731.4735681492</v>
       </c>
       <c r="N6" t="n">
-        <v>592133.8807580181</v>
+        <v>591786.5015036612</v>
       </c>
       <c r="O6" t="n">
-        <v>592133.8807580178</v>
+        <v>591786.501503661</v>
       </c>
       <c r="P6" t="n">
-        <v>592133.880758018</v>
+        <v>591786.5015036613</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,7 +26792,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26971,19 +26971,19 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27014,7 +27014,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>107.5910372856508</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>24.86821450891588</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>73.56009648707405</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>172.2573809594887</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>303.953004914459</v>
+        <v>331.8898480104164</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>137.6672317749937</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>83.3252282894414</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>224.2162592735958</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>108.8774149194503</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>188.8415500535422</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>744.5154887882964</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,7 +31864,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>248.5245325067415</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>677.7372574190224</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>165.2255134509763</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>453.7122424932254</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>572.8682992214867</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>277.4567226539307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>552.0015769888923</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>401.521336481369</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34447,10 +34447,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>419.3361492447676</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>602.3814548662781</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>114.5501250924112</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>535.141012974578</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>322.3705304098921</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>430.2720547770423</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>138.9023428740565</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>418.027169574562</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>263.67989750701</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>281.4947102704086</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3151713.118944142</v>
+        <v>3153473.649246927</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>344.4762014516515</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>226.1269574499861</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -867,19 +867,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>29.53463786574871</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>114.2656173771023</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>50.04052206184536</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>105.0221052551886</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="I7" t="n">
-        <v>13.02719212039669</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>199.829436717108</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506846</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206848</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>97.22826981530245</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.91555826189063</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1897,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>212.5602966632236</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>125.8152577453153</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>19.86507844888251</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>159.213275280683</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>59.66990246485226</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428163</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.35562273557</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1253.238931622639</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>867.4506790243945</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>456.4647742347869</v>
       </c>
       <c r="G2" t="n">
         <v>108.5090151927147</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2780.926337389189</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>2449.863450045618</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2097.094794775503</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X2" t="n">
-        <v>2097.094794775503</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y2" t="n">
-        <v>1706.955462799692</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080122</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986296</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962485</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034578</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3235.775364366698</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>3235.775364366698</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="V4" t="n">
-        <v>3235.775364366698</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="W4" t="n">
-        <v>3120.355548834272</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="X4" t="n">
-        <v>2892.365997936255</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792725</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.34156756514</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624728</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>985.1133520179776</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>3109.232218535064</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136267</v>
+        <v>2778.169331191494</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866153</v>
+        <v>2425.400675921379</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605073</v>
+        <v>2051.9349176603</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,40 +4652,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4704,40 +4704,40 @@
         <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518386</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395028</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571097</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591993</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339183</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H7" t="n">
-        <v>79.67089635177607</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4764,7 +4764,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051533</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
         <v>1409.887827153515</v>
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1023.012981614818</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>1023.012981614818</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,19 +4886,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2426.846358063199</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.991523718104</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2049.400878868273</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5767,13 +5767,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5901,7 +5901,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2319.876964645598</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6375,10 +6375,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6916,61 +6916,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101817</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>422.7903292978459</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7323,13 +7323,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>626.3497813227614</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>478.4366877403683</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>478.4366877403683</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2386.690454827884</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2167.088989850826</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1878.013763195024</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1623.329274989137</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1333.912104952176</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L45" t="n">
         <v>1072.713683962606</v>
@@ -7785,25 +7785,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>128.4813855737347</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.45968844823106</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4.845153664064696</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>55.21102825632927</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>126.5688841976867</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>6.310863011585866</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>121.3563835367923</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>718452.1540290017</v>
+        <v>718452.1540290018</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>718452.1540290017</v>
+        <v>718452.1540290018</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
@@ -26331,10 +26331,10 @@
         <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287556</v>
@@ -26343,10 +26343,10 @@
         <v>706253.2747287557</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287556</v>
@@ -26355,7 +26355,7 @@
         <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>3.539624622135307e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818164</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683035</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26450,10 +26450,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-810451.0365759196</v>
+        <v>-810451.0365759195</v>
       </c>
       <c r="C6" t="n">
-        <v>518293.7091516724</v>
+        <v>518293.7091516729</v>
       </c>
       <c r="D6" t="n">
-        <v>518293.7091516732</v>
+        <v>518293.709151673</v>
       </c>
       <c r="E6" t="n">
-        <v>266374.0396963058</v>
+        <v>266686.6810252269</v>
       </c>
       <c r="F6" t="n">
-        <v>591786.501503661</v>
+        <v>592099.1428325822</v>
       </c>
       <c r="G6" t="n">
-        <v>591786.5015036608</v>
+        <v>592099.1428325822</v>
       </c>
       <c r="H6" t="n">
-        <v>591786.5015036609</v>
+        <v>592099.1428325825</v>
       </c>
       <c r="I6" t="n">
-        <v>591786.5015036609</v>
+        <v>592099.1428325821</v>
       </c>
       <c r="J6" t="n">
-        <v>374255.2991063836</v>
+        <v>374567.9404353048</v>
       </c>
       <c r="K6" t="n">
-        <v>591786.5015036612</v>
+        <v>592099.1428325826</v>
       </c>
       <c r="L6" t="n">
-        <v>591786.5015036612</v>
+        <v>592099.1428325822</v>
       </c>
       <c r="M6" t="n">
-        <v>506731.4735681492</v>
+        <v>507044.1148970705</v>
       </c>
       <c r="N6" t="n">
-        <v>591786.5015036612</v>
+        <v>592099.1428325824</v>
       </c>
       <c r="O6" t="n">
-        <v>591786.501503661</v>
+        <v>592099.1428325824</v>
       </c>
       <c r="P6" t="n">
-        <v>591786.5015036613</v>
+        <v>592099.1428325822</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>66.44552420180196</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>24.86821450891588</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>256.6772003398642</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2573809594887</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>331.8898480104164</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>145.9730667037134</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>83.3252282894418</v>
       </c>
       <c r="I7" t="n">
-        <v>83.3252282894414</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>207.0466090246035</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194503</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33432,7 +33432,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
